--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -5099,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="477">
   <si>
     <t>Usuario</t>
   </si>
@@ -1008,6 +1008,456 @@
   </si>
   <si>
     <t>e34</t>
+  </si>
+  <si>
+    <t>Laboratorio1</t>
+  </si>
+  <si>
+    <t>Laboratorio2</t>
+  </si>
+  <si>
+    <t>Laboratorio3</t>
+  </si>
+  <si>
+    <t>Laboratorio4</t>
+  </si>
+  <si>
+    <t>Laboratorio5</t>
+  </si>
+  <si>
+    <t>Laboratorio6</t>
+  </si>
+  <si>
+    <t>Laboratorio7</t>
+  </si>
+  <si>
+    <t>Laboratorio8</t>
+  </si>
+  <si>
+    <t>Laboratorio9</t>
+  </si>
+  <si>
+    <t>Laboratorio10</t>
+  </si>
+  <si>
+    <t>Laboratorio11</t>
+  </si>
+  <si>
+    <t>Laboratorio12</t>
+  </si>
+  <si>
+    <t>Laboratorio13</t>
+  </si>
+  <si>
+    <t>Laboratorio14</t>
+  </si>
+  <si>
+    <t>Laboratorio15</t>
+  </si>
+  <si>
+    <t>Laboratorio16</t>
+  </si>
+  <si>
+    <t>Laboratorio17</t>
+  </si>
+  <si>
+    <t>Laboratorio18</t>
+  </si>
+  <si>
+    <t>Laboratorio19</t>
+  </si>
+  <si>
+    <t>Laboratorio20</t>
+  </si>
+  <si>
+    <t>Laboratorio21</t>
+  </si>
+  <si>
+    <t>Laboratorio22</t>
+  </si>
+  <si>
+    <t>Laboratorio23</t>
+  </si>
+  <si>
+    <t>Laboratorio24</t>
+  </si>
+  <si>
+    <t>Laboratorio25</t>
+  </si>
+  <si>
+    <t>Laboratorio26</t>
+  </si>
+  <si>
+    <t>Laboratorio27</t>
+  </si>
+  <si>
+    <t>Laboratorio28</t>
+  </si>
+  <si>
+    <t>Laboratorio29</t>
+  </si>
+  <si>
+    <t>Laboratorio30</t>
+  </si>
+  <si>
+    <t>Laboratorio31</t>
+  </si>
+  <si>
+    <t>Laboratorio32</t>
+  </si>
+  <si>
+    <t>Laboratorio33</t>
+  </si>
+  <si>
+    <t>Laboratorio34</t>
+  </si>
+  <si>
+    <t>Laboratorio35</t>
+  </si>
+  <si>
+    <t>Laboratorio36</t>
+  </si>
+  <si>
+    <t>Laboratorio37</t>
+  </si>
+  <si>
+    <t>Laboratorio38</t>
+  </si>
+  <si>
+    <t>Laboratorio39</t>
+  </si>
+  <si>
+    <t>Laboratorio40</t>
+  </si>
+  <si>
+    <t>Laboratorio41</t>
+  </si>
+  <si>
+    <t>Laboratorio42</t>
+  </si>
+  <si>
+    <t>Laboratorio43</t>
+  </si>
+  <si>
+    <t>Laboratorio44</t>
+  </si>
+  <si>
+    <t>Laboratorio45</t>
+  </si>
+  <si>
+    <t>Laboratorio46</t>
+  </si>
+  <si>
+    <t>Laboratorio47</t>
+  </si>
+  <si>
+    <t>Laboratorio48</t>
+  </si>
+  <si>
+    <t>Laboratorio49</t>
+  </si>
+  <si>
+    <t>Laboratorio50</t>
+  </si>
+  <si>
+    <t>Laboratorio51</t>
+  </si>
+  <si>
+    <t>Laboratorio52</t>
+  </si>
+  <si>
+    <t>Laboratorio53</t>
+  </si>
+  <si>
+    <t>Laboratorio54</t>
+  </si>
+  <si>
+    <t>Laboratorio55</t>
+  </si>
+  <si>
+    <t>Laboratorio56</t>
+  </si>
+  <si>
+    <t>Laboratorio57</t>
+  </si>
+  <si>
+    <t>Laboratorio58</t>
+  </si>
+  <si>
+    <t>Laboratorio59</t>
+  </si>
+  <si>
+    <t>Laboratorio60</t>
+  </si>
+  <si>
+    <t>Laboratorio61</t>
+  </si>
+  <si>
+    <t>Laboratorio62</t>
+  </si>
+  <si>
+    <t>Laboratorio63</t>
+  </si>
+  <si>
+    <t>Laboratorio64</t>
+  </si>
+  <si>
+    <t>Laboratorio65</t>
+  </si>
+  <si>
+    <t>Laboratorio66</t>
+  </si>
+  <si>
+    <t>Laboratorio67</t>
+  </si>
+  <si>
+    <t>Laboratorio68</t>
+  </si>
+  <si>
+    <t>Laboratorio69</t>
+  </si>
+  <si>
+    <t>Laboratorio70</t>
+  </si>
+  <si>
+    <t>Laboratorio71</t>
+  </si>
+  <si>
+    <t>Laboratorio72</t>
+  </si>
+  <si>
+    <t>Laboratorio73</t>
+  </si>
+  <si>
+    <t>Laboratorio74</t>
+  </si>
+  <si>
+    <t>Laboratorio75</t>
+  </si>
+  <si>
+    <t>Laboratorio76</t>
+  </si>
+  <si>
+    <t>Laboratorio77</t>
+  </si>
+  <si>
+    <t>Laboratorio78</t>
+  </si>
+  <si>
+    <t>Laboratorio79</t>
+  </si>
+  <si>
+    <t>Laboratorio80</t>
+  </si>
+  <si>
+    <t>Laboratorio81</t>
+  </si>
+  <si>
+    <t>Laboratorio82</t>
+  </si>
+  <si>
+    <t>Laboratorio83</t>
+  </si>
+  <si>
+    <t>Laboratorio84</t>
+  </si>
+  <si>
+    <t>Laboratorio85</t>
+  </si>
+  <si>
+    <t>Laboratorio86</t>
+  </si>
+  <si>
+    <t>Laboratorio87</t>
+  </si>
+  <si>
+    <t>Laboratorio88</t>
+  </si>
+  <si>
+    <t>Laboratorio89</t>
+  </si>
+  <si>
+    <t>Laboratorio90</t>
+  </si>
+  <si>
+    <t>Laboratorio91</t>
+  </si>
+  <si>
+    <t>Laboratorio92</t>
+  </si>
+  <si>
+    <t>Laboratorio93</t>
+  </si>
+  <si>
+    <t>Laboratorio94</t>
+  </si>
+  <si>
+    <t>Laboratorio95</t>
+  </si>
+  <si>
+    <t>Laboratorio96</t>
+  </si>
+  <si>
+    <t>Laboratorio97</t>
+  </si>
+  <si>
+    <t>Laboratorio98</t>
+  </si>
+  <si>
+    <t>Laboratorio99</t>
+  </si>
+  <si>
+    <t>Laboratorio100</t>
+  </si>
+  <si>
+    <t>Laboratorio101</t>
+  </si>
+  <si>
+    <t>Laboratorio102</t>
+  </si>
+  <si>
+    <t>Laboratorio103</t>
+  </si>
+  <si>
+    <t>Laboratorio104</t>
+  </si>
+  <si>
+    <t>Laboratorio105</t>
+  </si>
+  <si>
+    <t>Laboratorio106</t>
+  </si>
+  <si>
+    <t>Laboratorio107</t>
+  </si>
+  <si>
+    <t>Laboratorio108</t>
+  </si>
+  <si>
+    <t>Laboratorio109</t>
+  </si>
+  <si>
+    <t>Laboratorio110</t>
+  </si>
+  <si>
+    <t>Laboratorio111</t>
+  </si>
+  <si>
+    <t>Laboratorio112</t>
+  </si>
+  <si>
+    <t>Laboratorio113</t>
+  </si>
+  <si>
+    <t>Laboratorio114</t>
+  </si>
+  <si>
+    <t>Laboratorio115</t>
+  </si>
+  <si>
+    <t>Laboratorio116</t>
+  </si>
+  <si>
+    <t>Laboratorio117</t>
+  </si>
+  <si>
+    <t>Laboratorio118</t>
+  </si>
+  <si>
+    <t>Laboratorio119</t>
+  </si>
+  <si>
+    <t>Laboratorio120</t>
+  </si>
+  <si>
+    <t>Laboratorio121</t>
+  </si>
+  <si>
+    <t>Laboratorio122</t>
+  </si>
+  <si>
+    <t>Laboratorio123</t>
+  </si>
+  <si>
+    <t>Laboratorio124</t>
+  </si>
+  <si>
+    <t>Laboratorio125</t>
+  </si>
+  <si>
+    <t>Laboratorio126</t>
+  </si>
+  <si>
+    <t>Laboratorio127</t>
+  </si>
+  <si>
+    <t>Laboratorio128</t>
+  </si>
+  <si>
+    <t>Laboratorio129</t>
+  </si>
+  <si>
+    <t>Laboratorio130</t>
+  </si>
+  <si>
+    <t>Laboratorio131</t>
+  </si>
+  <si>
+    <t>Laboratorio132</t>
+  </si>
+  <si>
+    <t>Laboratorio133</t>
+  </si>
+  <si>
+    <t>Laboratorio134</t>
+  </si>
+  <si>
+    <t>Laboratorio135</t>
+  </si>
+  <si>
+    <t>Laboratorio136</t>
+  </si>
+  <si>
+    <t>Laboratorio137</t>
+  </si>
+  <si>
+    <t>Laboratorio138</t>
+  </si>
+  <si>
+    <t>Laboratorio139</t>
+  </si>
+  <si>
+    <t>Laboratorio140</t>
+  </si>
+  <si>
+    <t>Laboratorio141</t>
+  </si>
+  <si>
+    <t>Laboratorio142</t>
+  </si>
+  <si>
+    <t>Laboratorio143</t>
+  </si>
+  <si>
+    <t>Laboratorio144</t>
+  </si>
+  <si>
+    <t>Laboratorio145</t>
+  </si>
+  <si>
+    <t>Laboratorio146</t>
+  </si>
+  <si>
+    <t>Laboratorio147</t>
+  </si>
+  <si>
+    <t>Laboratorio148</t>
+  </si>
+  <si>
+    <t>Laboratorio149</t>
+  </si>
+  <si>
+    <t>Laboratorio150</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1102,6 +1552,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +2004,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -5097,18 +5548,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -5118,8 +5570,11 @@
       <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -5129,8 +5584,11 @@
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5140,8 +5598,11 @@
       <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5151,8 +5612,11 @@
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5162,8 +5626,11 @@
       <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -5173,8 +5640,11 @@
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -5184,8 +5654,11 @@
       <c r="C7" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -5195,8 +5668,11 @@
       <c r="C8" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -5206,8 +5682,11 @@
       <c r="C9" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5217,8 +5696,11 @@
       <c r="C10" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -5228,8 +5710,11 @@
       <c r="C11" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -5239,8 +5724,11 @@
       <c r="C12" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5250,8 +5738,11 @@
       <c r="C13" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -5261,8 +5752,11 @@
       <c r="C14" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5272,8 +5766,11 @@
       <c r="C15" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5283,8 +5780,11 @@
       <c r="C16" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -5294,8 +5794,11 @@
       <c r="C17" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5305,8 +5808,11 @@
       <c r="C18" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -5316,8 +5822,11 @@
       <c r="C19" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5327,8 +5836,11 @@
       <c r="C20" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -5338,8 +5850,11 @@
       <c r="C21" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -5349,8 +5864,11 @@
       <c r="C22" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -5360,8 +5878,11 @@
       <c r="C23" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -5371,8 +5892,11 @@
       <c r="C24" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -5382,8 +5906,11 @@
       <c r="C25" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5393,8 +5920,11 @@
       <c r="C26" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -5404,8 +5934,11 @@
       <c r="C27" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5415,8 +5948,11 @@
       <c r="C28" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -5426,8 +5962,11 @@
       <c r="C29" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5437,8 +5976,11 @@
       <c r="C30" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -5448,8 +5990,11 @@
       <c r="C31" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -5459,8 +6004,11 @@
       <c r="C32" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -5470,8 +6018,11 @@
       <c r="C33" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -5481,8 +6032,11 @@
       <c r="C34" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -5492,8 +6046,11 @@
       <c r="C35" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -5503,8 +6060,11 @@
       <c r="C36" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -5514,8 +6074,11 @@
       <c r="C37" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -5525,8 +6088,11 @@
       <c r="C38" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -5536,8 +6102,11 @@
       <c r="C39" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5547,8 +6116,11 @@
       <c r="C40" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -5558,8 +6130,11 @@
       <c r="C41" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -5569,8 +6144,11 @@
       <c r="C42" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -5580,8 +6158,11 @@
       <c r="C43" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -5591,8 +6172,11 @@
       <c r="C44" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -5602,8 +6186,11 @@
       <c r="C45" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -5613,8 +6200,11 @@
       <c r="C46" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -5624,8 +6214,11 @@
       <c r="C47" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -5635,8 +6228,11 @@
       <c r="C48" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -5646,8 +6242,11 @@
       <c r="C49" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -5657,8 +6256,11 @@
       <c r="C50" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -5668,8 +6270,11 @@
       <c r="C51" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -5679,8 +6284,11 @@
       <c r="C52" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -5690,8 +6298,11 @@
       <c r="C53" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -5701,8 +6312,11 @@
       <c r="C54" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -5712,8 +6326,11 @@
       <c r="C55" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -5723,8 +6340,11 @@
       <c r="C56" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -5734,8 +6354,11 @@
       <c r="C57" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -5745,8 +6368,11 @@
       <c r="C58" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -5756,8 +6382,11 @@
       <c r="C59" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -5767,8 +6396,11 @@
       <c r="C60" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -5778,8 +6410,11 @@
       <c r="C61" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -5789,8 +6424,11 @@
       <c r="C62" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -5800,8 +6438,11 @@
       <c r="C63" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -5811,8 +6452,11 @@
       <c r="C64" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -5822,8 +6466,11 @@
       <c r="C65" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -5833,8 +6480,11 @@
       <c r="C66" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -5844,8 +6494,11 @@
       <c r="C67" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -5855,8 +6508,11 @@
       <c r="C68" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -5866,8 +6522,11 @@
       <c r="C69" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -5877,8 +6536,11 @@
       <c r="C70" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -5888,8 +6550,11 @@
       <c r="C71" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -5899,8 +6564,11 @@
       <c r="C72" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -5910,8 +6578,11 @@
       <c r="C73" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -5921,8 +6592,11 @@
       <c r="C74" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -5932,8 +6606,11 @@
       <c r="C75" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -5943,8 +6620,11 @@
       <c r="C76" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -5954,8 +6634,11 @@
       <c r="C77" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -5965,8 +6648,11 @@
       <c r="C78" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -5976,8 +6662,11 @@
       <c r="C79" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -5987,8 +6676,11 @@
       <c r="C80" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -5998,8 +6690,11 @@
       <c r="C81" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>2</v>
       </c>
@@ -6009,8 +6704,11 @@
       <c r="C82" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -6020,8 +6718,11 @@
       <c r="C83" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>2</v>
       </c>
@@ -6031,8 +6732,11 @@
       <c r="C84" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -6042,8 +6746,11 @@
       <c r="C85" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -6053,8 +6760,11 @@
       <c r="C86" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>2</v>
       </c>
@@ -6064,8 +6774,11 @@
       <c r="C87" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -6075,8 +6788,11 @@
       <c r="C88" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>2</v>
       </c>
@@ -6086,8 +6802,11 @@
       <c r="C89" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -6097,8 +6816,11 @@
       <c r="C90" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>1</v>
       </c>
@@ -6108,8 +6830,11 @@
       <c r="C91" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>2</v>
       </c>
@@ -6119,8 +6844,11 @@
       <c r="C92" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -6130,8 +6858,11 @@
       <c r="C93" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>2</v>
       </c>
@@ -6141,8 +6872,11 @@
       <c r="C94" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>1</v>
       </c>
@@ -6152,8 +6886,11 @@
       <c r="C95" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>1</v>
       </c>
@@ -6163,8 +6900,11 @@
       <c r="C96" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>2</v>
       </c>
@@ -6174,8 +6914,11 @@
       <c r="C97" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -6185,8 +6928,11 @@
       <c r="C98" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -6196,8 +6942,11 @@
       <c r="C99" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -6207,8 +6956,11 @@
       <c r="C100" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>1</v>
       </c>
@@ -6218,8 +6970,11 @@
       <c r="C101" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>1</v>
       </c>
@@ -6229,8 +6984,11 @@
       <c r="C102" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>2</v>
       </c>
@@ -6240,8 +6998,11 @@
       <c r="C103" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -6251,8 +7012,11 @@
       <c r="C104" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>2</v>
       </c>
@@ -6262,8 +7026,11 @@
       <c r="C105" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>1</v>
       </c>
@@ -6273,8 +7040,11 @@
       <c r="C106" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -6284,8 +7054,11 @@
       <c r="C107" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>2</v>
       </c>
@@ -6295,8 +7068,11 @@
       <c r="C108" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -6306,8 +7082,11 @@
       <c r="C109" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>2</v>
       </c>
@@ -6317,8 +7096,11 @@
       <c r="C110" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -6328,8 +7110,11 @@
       <c r="C111" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1</v>
       </c>
@@ -6339,8 +7124,11 @@
       <c r="C112" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>2</v>
       </c>
@@ -6350,8 +7138,11 @@
       <c r="C113" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1</v>
       </c>
@@ -6361,8 +7152,11 @@
       <c r="C114" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>2</v>
       </c>
@@ -6372,8 +7166,11 @@
       <c r="C115" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>1</v>
       </c>
@@ -6383,8 +7180,11 @@
       <c r="C116" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>1</v>
       </c>
@@ -6394,8 +7194,11 @@
       <c r="C117" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>2</v>
       </c>
@@ -6405,8 +7208,11 @@
       <c r="C118" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>1</v>
       </c>
@@ -6416,8 +7222,12 @@
       <c r="C119" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>445</v>
+      </c>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>2</v>
       </c>
@@ -6427,8 +7237,11 @@
       <c r="C120" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>1</v>
       </c>
@@ -6438,8 +7251,11 @@
       <c r="C121" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -6449,8 +7265,11 @@
       <c r="C122" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>2</v>
       </c>
@@ -6460,8 +7279,11 @@
       <c r="C123" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -6471,8 +7293,11 @@
       <c r="C124" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -6482,8 +7307,11 @@
       <c r="C125" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1</v>
       </c>
@@ -6493,8 +7321,11 @@
       <c r="C126" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>1</v>
       </c>
@@ -6504,8 +7335,11 @@
       <c r="C127" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>1</v>
       </c>
@@ -6515,8 +7349,11 @@
       <c r="C128" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>2</v>
       </c>
@@ -6526,8 +7363,11 @@
       <c r="C129" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>1</v>
       </c>
@@ -6537,8 +7377,11 @@
       <c r="C130" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>2</v>
       </c>
@@ -6548,8 +7391,11 @@
       <c r="C131" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -6559,8 +7405,11 @@
       <c r="C132" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>1</v>
       </c>
@@ -6570,8 +7419,11 @@
       <c r="C133" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>2</v>
       </c>
@@ -6581,8 +7433,11 @@
       <c r="C134" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>1</v>
       </c>
@@ -6592,8 +7447,11 @@
       <c r="C135" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>2</v>
       </c>
@@ -6603,8 +7461,11 @@
       <c r="C136" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>1</v>
       </c>
@@ -6614,8 +7475,11 @@
       <c r="C137" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>1</v>
       </c>
@@ -6625,8 +7489,11 @@
       <c r="C138" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>2</v>
       </c>
@@ -6636,8 +7503,11 @@
       <c r="C139" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>1</v>
       </c>
@@ -6647,8 +7517,11 @@
       <c r="C140" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>2</v>
       </c>
@@ -6658,8 +7531,11 @@
       <c r="C141" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>1</v>
       </c>
@@ -6669,8 +7545,11 @@
       <c r="C142" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -6680,8 +7559,11 @@
       <c r="C143" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>2</v>
       </c>
@@ -6691,8 +7573,11 @@
       <c r="C144" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -6702,8 +7587,11 @@
       <c r="C145" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>2</v>
       </c>
@@ -6713,8 +7601,11 @@
       <c r="C146" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -6724,8 +7615,11 @@
       <c r="C147" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>1</v>
       </c>
@@ -6735,8 +7629,11 @@
       <c r="C148" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -6746,8 +7643,11 @@
       <c r="C149" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>1</v>
       </c>
@@ -6757,23 +7657,27 @@
       <c r="C150" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5550,7 +5550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -1464,7 +1464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1474,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1526,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1553,6 +1561,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,7 +1881,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,10 +2015,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
@@ -2027,13 +2038,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -2051,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>24</v>
@@ -2094,7 +2105,7 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="5">

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2059,7 +2059,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="478">
   <si>
     <t>Usuario</t>
   </si>
@@ -1458,13 +1458,16 @@
   </si>
   <si>
     <t>Laboratorio150</t>
+  </si>
+  <si>
+    <t>elba.leon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,14 +1477,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1534,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1561,9 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,7 +2074,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -2103,13 +2095,13 @@
         <v>17</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>24</v>
@@ -5561,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -2139,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="5">
         <v>2</v>
@@ -5553,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
     <sheet name="Solicitudes" sheetId="2" r:id="rId2"/>
     <sheet name="Consulta Contancia - Dictamen " sheetId="3" r:id="rId3"/>
     <sheet name="vacunas" sheetId="4" r:id="rId4"/>
+    <sheet name="garra" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1028">
   <si>
     <t>Usuario</t>
   </si>
@@ -1461,13 +1462,1663 @@
   </si>
   <si>
     <t>elba.leon</t>
+  </si>
+  <si>
+    <t>GR20200000019</t>
+  </si>
+  <si>
+    <t>GR20200000020</t>
+  </si>
+  <si>
+    <t>GR20200000021</t>
+  </si>
+  <si>
+    <t>GR20200000022</t>
+  </si>
+  <si>
+    <t>GR20200000023</t>
+  </si>
+  <si>
+    <t>GR20200000024</t>
+  </si>
+  <si>
+    <t>GR20200000025</t>
+  </si>
+  <si>
+    <t>GR20200000026</t>
+  </si>
+  <si>
+    <t>GR20200000027</t>
+  </si>
+  <si>
+    <t>GR20200000028</t>
+  </si>
+  <si>
+    <t>GR20200000029</t>
+  </si>
+  <si>
+    <t>GR20200000030</t>
+  </si>
+  <si>
+    <t>GR20200000031</t>
+  </si>
+  <si>
+    <t>GR20200000033</t>
+  </si>
+  <si>
+    <t>GR20200000035</t>
+  </si>
+  <si>
+    <t>GR20200000039</t>
+  </si>
+  <si>
+    <t>GR20200000041</t>
+  </si>
+  <si>
+    <t>GR20200000044</t>
+  </si>
+  <si>
+    <t>GR20200000046</t>
+  </si>
+  <si>
+    <t>GR20200000047</t>
+  </si>
+  <si>
+    <t>GR20200000050</t>
+  </si>
+  <si>
+    <t>GR20200000054</t>
+  </si>
+  <si>
+    <t>GR20200000059</t>
+  </si>
+  <si>
+    <t>GR20200000065</t>
+  </si>
+  <si>
+    <t>GR20200000066</t>
+  </si>
+  <si>
+    <t>GR20200000032</t>
+  </si>
+  <si>
+    <t>GR20200000034</t>
+  </si>
+  <si>
+    <t>GR20200000036</t>
+  </si>
+  <si>
+    <t>GR20200000037</t>
+  </si>
+  <si>
+    <t>GR20200000038</t>
+  </si>
+  <si>
+    <t>GR20200000040</t>
+  </si>
+  <si>
+    <t>GR20200000042</t>
+  </si>
+  <si>
+    <t>GR20200000043</t>
+  </si>
+  <si>
+    <t>GR20200000045</t>
+  </si>
+  <si>
+    <t>GR20200000048</t>
+  </si>
+  <si>
+    <t>GR20200000049</t>
+  </si>
+  <si>
+    <t>GR20200000051</t>
+  </si>
+  <si>
+    <t>GR20200000052</t>
+  </si>
+  <si>
+    <t>GR20200000053</t>
+  </si>
+  <si>
+    <t>GR20200000056</t>
+  </si>
+  <si>
+    <t>GR20200000058</t>
+  </si>
+  <si>
+    <t>GR20200000060</t>
+  </si>
+  <si>
+    <t>GR20200000061</t>
+  </si>
+  <si>
+    <t>GR20200000062</t>
+  </si>
+  <si>
+    <t>GR20200000063</t>
+  </si>
+  <si>
+    <t>GR20200000064</t>
+  </si>
+  <si>
+    <t>GR20200000067</t>
+  </si>
+  <si>
+    <t>GR20200000068</t>
+  </si>
+  <si>
+    <t>GR20200000069</t>
+  </si>
+  <si>
+    <t>GR20200000070</t>
+  </si>
+  <si>
+    <t>Estado1</t>
+  </si>
+  <si>
+    <t>Municipio1</t>
+  </si>
+  <si>
+    <t>Localidad1</t>
+  </si>
+  <si>
+    <t>Estado2</t>
+  </si>
+  <si>
+    <t>Municipio2</t>
+  </si>
+  <si>
+    <t>Localidad2</t>
+  </si>
+  <si>
+    <t>Estado3</t>
+  </si>
+  <si>
+    <t>Municipio3</t>
+  </si>
+  <si>
+    <t>Localidad3</t>
+  </si>
+  <si>
+    <t>Estado4</t>
+  </si>
+  <si>
+    <t>Municipio4</t>
+  </si>
+  <si>
+    <t>Localidad4</t>
+  </si>
+  <si>
+    <t>Estado5</t>
+  </si>
+  <si>
+    <t>Municipio5</t>
+  </si>
+  <si>
+    <t>Localidad5</t>
+  </si>
+  <si>
+    <t>Estado6</t>
+  </si>
+  <si>
+    <t>Municipio6</t>
+  </si>
+  <si>
+    <t>Localidad6</t>
+  </si>
+  <si>
+    <t>Estado7</t>
+  </si>
+  <si>
+    <t>Municipio7</t>
+  </si>
+  <si>
+    <t>Localidad7</t>
+  </si>
+  <si>
+    <t>Estado8</t>
+  </si>
+  <si>
+    <t>Municipio8</t>
+  </si>
+  <si>
+    <t>Localidad8</t>
+  </si>
+  <si>
+    <t>Estado9</t>
+  </si>
+  <si>
+    <t>Municipio9</t>
+  </si>
+  <si>
+    <t>Localidad9</t>
+  </si>
+  <si>
+    <t>Estado10</t>
+  </si>
+  <si>
+    <t>Municipio10</t>
+  </si>
+  <si>
+    <t>Localidad10</t>
+  </si>
+  <si>
+    <t>Estado11</t>
+  </si>
+  <si>
+    <t>Municipio11</t>
+  </si>
+  <si>
+    <t>Localidad11</t>
+  </si>
+  <si>
+    <t>Estado12</t>
+  </si>
+  <si>
+    <t>Municipio12</t>
+  </si>
+  <si>
+    <t>Localidad12</t>
+  </si>
+  <si>
+    <t>Estado13</t>
+  </si>
+  <si>
+    <t>Municipio13</t>
+  </si>
+  <si>
+    <t>Localidad13</t>
+  </si>
+  <si>
+    <t>Estado14</t>
+  </si>
+  <si>
+    <t>Municipio14</t>
+  </si>
+  <si>
+    <t>Localidad14</t>
+  </si>
+  <si>
+    <t>Estado15</t>
+  </si>
+  <si>
+    <t>Municipio15</t>
+  </si>
+  <si>
+    <t>Localidad15</t>
+  </si>
+  <si>
+    <t>Estado16</t>
+  </si>
+  <si>
+    <t>Municipio16</t>
+  </si>
+  <si>
+    <t>Localidad16</t>
+  </si>
+  <si>
+    <t>Estado17</t>
+  </si>
+  <si>
+    <t>Municipio17</t>
+  </si>
+  <si>
+    <t>Localidad17</t>
+  </si>
+  <si>
+    <t>Estado18</t>
+  </si>
+  <si>
+    <t>Municipio18</t>
+  </si>
+  <si>
+    <t>Localidad18</t>
+  </si>
+  <si>
+    <t>Estado19</t>
+  </si>
+  <si>
+    <t>Municipio19</t>
+  </si>
+  <si>
+    <t>Localidad19</t>
+  </si>
+  <si>
+    <t>Estado20</t>
+  </si>
+  <si>
+    <t>Municipio20</t>
+  </si>
+  <si>
+    <t>Localidad20</t>
+  </si>
+  <si>
+    <t>Estado21</t>
+  </si>
+  <si>
+    <t>Municipio21</t>
+  </si>
+  <si>
+    <t>Localidad21</t>
+  </si>
+  <si>
+    <t>Estado22</t>
+  </si>
+  <si>
+    <t>Municipio22</t>
+  </si>
+  <si>
+    <t>Localidad22</t>
+  </si>
+  <si>
+    <t>Estado23</t>
+  </si>
+  <si>
+    <t>Municipio23</t>
+  </si>
+  <si>
+    <t>Localidad23</t>
+  </si>
+  <si>
+    <t>Estado24</t>
+  </si>
+  <si>
+    <t>Municipio24</t>
+  </si>
+  <si>
+    <t>Localidad24</t>
+  </si>
+  <si>
+    <t>Estado25</t>
+  </si>
+  <si>
+    <t>Municipio25</t>
+  </si>
+  <si>
+    <t>Localidad25</t>
+  </si>
+  <si>
+    <t>Estado26</t>
+  </si>
+  <si>
+    <t>Municipio26</t>
+  </si>
+  <si>
+    <t>Localidad26</t>
+  </si>
+  <si>
+    <t>Estado27</t>
+  </si>
+  <si>
+    <t>Municipio27</t>
+  </si>
+  <si>
+    <t>Localidad27</t>
+  </si>
+  <si>
+    <t>Estado28</t>
+  </si>
+  <si>
+    <t>Municipio28</t>
+  </si>
+  <si>
+    <t>Localidad28</t>
+  </si>
+  <si>
+    <t>Estado29</t>
+  </si>
+  <si>
+    <t>Municipio29</t>
+  </si>
+  <si>
+    <t>Localidad29</t>
+  </si>
+  <si>
+    <t>Estado30</t>
+  </si>
+  <si>
+    <t>Municipio30</t>
+  </si>
+  <si>
+    <t>Localidad30</t>
+  </si>
+  <si>
+    <t>Estado31</t>
+  </si>
+  <si>
+    <t>Municipio31</t>
+  </si>
+  <si>
+    <t>Localidad31</t>
+  </si>
+  <si>
+    <t>Estado32</t>
+  </si>
+  <si>
+    <t>Municipio32</t>
+  </si>
+  <si>
+    <t>Localidad32</t>
+  </si>
+  <si>
+    <t>Estado33</t>
+  </si>
+  <si>
+    <t>Municipio33</t>
+  </si>
+  <si>
+    <t>Localidad33</t>
+  </si>
+  <si>
+    <t>Estado34</t>
+  </si>
+  <si>
+    <t>Municipio34</t>
+  </si>
+  <si>
+    <t>Localidad34</t>
+  </si>
+  <si>
+    <t>Estado35</t>
+  </si>
+  <si>
+    <t>Municipio35</t>
+  </si>
+  <si>
+    <t>Localidad35</t>
+  </si>
+  <si>
+    <t>Estado36</t>
+  </si>
+  <si>
+    <t>Municipio36</t>
+  </si>
+  <si>
+    <t>Localidad36</t>
+  </si>
+  <si>
+    <t>Estado37</t>
+  </si>
+  <si>
+    <t>Municipio37</t>
+  </si>
+  <si>
+    <t>Localidad37</t>
+  </si>
+  <si>
+    <t>Estado38</t>
+  </si>
+  <si>
+    <t>Municipio38</t>
+  </si>
+  <si>
+    <t>Localidad38</t>
+  </si>
+  <si>
+    <t>Estado39</t>
+  </si>
+  <si>
+    <t>Municipio39</t>
+  </si>
+  <si>
+    <t>Localidad39</t>
+  </si>
+  <si>
+    <t>Estado40</t>
+  </si>
+  <si>
+    <t>Municipio40</t>
+  </si>
+  <si>
+    <t>Localidad40</t>
+  </si>
+  <si>
+    <t>Estado41</t>
+  </si>
+  <si>
+    <t>Municipio41</t>
+  </si>
+  <si>
+    <t>Localidad41</t>
+  </si>
+  <si>
+    <t>Estado42</t>
+  </si>
+  <si>
+    <t>Municipio42</t>
+  </si>
+  <si>
+    <t>Localidad42</t>
+  </si>
+  <si>
+    <t>Estado43</t>
+  </si>
+  <si>
+    <t>Municipio43</t>
+  </si>
+  <si>
+    <t>Localidad43</t>
+  </si>
+  <si>
+    <t>Estado44</t>
+  </si>
+  <si>
+    <t>Municipio44</t>
+  </si>
+  <si>
+    <t>Localidad44</t>
+  </si>
+  <si>
+    <t>Estado45</t>
+  </si>
+  <si>
+    <t>Municipio45</t>
+  </si>
+  <si>
+    <t>Localidad45</t>
+  </si>
+  <si>
+    <t>Estado46</t>
+  </si>
+  <si>
+    <t>Municipio46</t>
+  </si>
+  <si>
+    <t>Localidad46</t>
+  </si>
+  <si>
+    <t>Estado47</t>
+  </si>
+  <si>
+    <t>Municipio47</t>
+  </si>
+  <si>
+    <t>Localidad47</t>
+  </si>
+  <si>
+    <t>Estado48</t>
+  </si>
+  <si>
+    <t>Municipio48</t>
+  </si>
+  <si>
+    <t>Localidad48</t>
+  </si>
+  <si>
+    <t>Estado49</t>
+  </si>
+  <si>
+    <t>Municipio49</t>
+  </si>
+  <si>
+    <t>Localidad49</t>
+  </si>
+  <si>
+    <t>Estado50</t>
+  </si>
+  <si>
+    <t>Municipio50</t>
+  </si>
+  <si>
+    <t>Localidad50</t>
+  </si>
+  <si>
+    <t>Observación1</t>
+  </si>
+  <si>
+    <t>Observación2</t>
+  </si>
+  <si>
+    <t>Observación3</t>
+  </si>
+  <si>
+    <t>Observación4</t>
+  </si>
+  <si>
+    <t>Observación5</t>
+  </si>
+  <si>
+    <t>Observación6</t>
+  </si>
+  <si>
+    <t>Observación7</t>
+  </si>
+  <si>
+    <t>Observación8</t>
+  </si>
+  <si>
+    <t>Observación9</t>
+  </si>
+  <si>
+    <t>Observación10</t>
+  </si>
+  <si>
+    <t>Observación11</t>
+  </si>
+  <si>
+    <t>Observación12</t>
+  </si>
+  <si>
+    <t>Observación13</t>
+  </si>
+  <si>
+    <t>Observación14</t>
+  </si>
+  <si>
+    <t>Observación15</t>
+  </si>
+  <si>
+    <t>Observación16</t>
+  </si>
+  <si>
+    <t>Observación17</t>
+  </si>
+  <si>
+    <t>Observación18</t>
+  </si>
+  <si>
+    <t>Observación19</t>
+  </si>
+  <si>
+    <t>Observación20</t>
+  </si>
+  <si>
+    <t>Observación21</t>
+  </si>
+  <si>
+    <t>Observación22</t>
+  </si>
+  <si>
+    <t>Observación23</t>
+  </si>
+  <si>
+    <t>Observación24</t>
+  </si>
+  <si>
+    <t>Observación25</t>
+  </si>
+  <si>
+    <t>Observación26</t>
+  </si>
+  <si>
+    <t>Observación27</t>
+  </si>
+  <si>
+    <t>Observación28</t>
+  </si>
+  <si>
+    <t>Observación29</t>
+  </si>
+  <si>
+    <t>Observación30</t>
+  </si>
+  <si>
+    <t>Observación31</t>
+  </si>
+  <si>
+    <t>Observación32</t>
+  </si>
+  <si>
+    <t>Observación33</t>
+  </si>
+  <si>
+    <t>Observación34</t>
+  </si>
+  <si>
+    <t>Observación35</t>
+  </si>
+  <si>
+    <t>Observación36</t>
+  </si>
+  <si>
+    <t>Observación37</t>
+  </si>
+  <si>
+    <t>Observación38</t>
+  </si>
+  <si>
+    <t>Observación39</t>
+  </si>
+  <si>
+    <t>Observación40</t>
+  </si>
+  <si>
+    <t>Observación41</t>
+  </si>
+  <si>
+    <t>Observación42</t>
+  </si>
+  <si>
+    <t>Observación43</t>
+  </si>
+  <si>
+    <t>Observación44</t>
+  </si>
+  <si>
+    <t>Observación45</t>
+  </si>
+  <si>
+    <t>Observación46</t>
+  </si>
+  <si>
+    <t>Observación47</t>
+  </si>
+  <si>
+    <t>Observación48</t>
+  </si>
+  <si>
+    <t>Observación49</t>
+  </si>
+  <si>
+    <t>Observación50</t>
+  </si>
+  <si>
+    <t>Carro1</t>
+  </si>
+  <si>
+    <t>Placas1</t>
+  </si>
+  <si>
+    <t>Marca1</t>
+  </si>
+  <si>
+    <t>Capacidad1</t>
+  </si>
+  <si>
+    <t>Flejado1</t>
+  </si>
+  <si>
+    <t>Carro2</t>
+  </si>
+  <si>
+    <t>Marca2</t>
+  </si>
+  <si>
+    <t>Placas2</t>
+  </si>
+  <si>
+    <t>Capacidad2</t>
+  </si>
+  <si>
+    <t>Flejado2</t>
+  </si>
+  <si>
+    <t>Carro3</t>
+  </si>
+  <si>
+    <t>Marca3</t>
+  </si>
+  <si>
+    <t>Placas3</t>
+  </si>
+  <si>
+    <t>Capacidad3</t>
+  </si>
+  <si>
+    <t>Flejado3</t>
+  </si>
+  <si>
+    <t>Carro4</t>
+  </si>
+  <si>
+    <t>Marca4</t>
+  </si>
+  <si>
+    <t>Placas4</t>
+  </si>
+  <si>
+    <t>Capacidad4</t>
+  </si>
+  <si>
+    <t>Flejado4</t>
+  </si>
+  <si>
+    <t>Carro5</t>
+  </si>
+  <si>
+    <t>Marca5</t>
+  </si>
+  <si>
+    <t>Placas5</t>
+  </si>
+  <si>
+    <t>Capacidad5</t>
+  </si>
+  <si>
+    <t>Flejado5</t>
+  </si>
+  <si>
+    <t>Carro6</t>
+  </si>
+  <si>
+    <t>Marca6</t>
+  </si>
+  <si>
+    <t>Placas6</t>
+  </si>
+  <si>
+    <t>Capacidad6</t>
+  </si>
+  <si>
+    <t>Flejado6</t>
+  </si>
+  <si>
+    <t>Carro7</t>
+  </si>
+  <si>
+    <t>Marca7</t>
+  </si>
+  <si>
+    <t>Placas7</t>
+  </si>
+  <si>
+    <t>Capacidad7</t>
+  </si>
+  <si>
+    <t>Flejado7</t>
+  </si>
+  <si>
+    <t>Carro8</t>
+  </si>
+  <si>
+    <t>Marca8</t>
+  </si>
+  <si>
+    <t>Placas8</t>
+  </si>
+  <si>
+    <t>Capacidad8</t>
+  </si>
+  <si>
+    <t>Flejado8</t>
+  </si>
+  <si>
+    <t>Carro9</t>
+  </si>
+  <si>
+    <t>Marca9</t>
+  </si>
+  <si>
+    <t>Placas9</t>
+  </si>
+  <si>
+    <t>Capacidad9</t>
+  </si>
+  <si>
+    <t>Flejado9</t>
+  </si>
+  <si>
+    <t>Carro10</t>
+  </si>
+  <si>
+    <t>Marca10</t>
+  </si>
+  <si>
+    <t>Placas10</t>
+  </si>
+  <si>
+    <t>Capacidad10</t>
+  </si>
+  <si>
+    <t>Flejado10</t>
+  </si>
+  <si>
+    <t>Carro11</t>
+  </si>
+  <si>
+    <t>Marca11</t>
+  </si>
+  <si>
+    <t>Placas11</t>
+  </si>
+  <si>
+    <t>Capacidad11</t>
+  </si>
+  <si>
+    <t>Flejado11</t>
+  </si>
+  <si>
+    <t>Carro12</t>
+  </si>
+  <si>
+    <t>Marca12</t>
+  </si>
+  <si>
+    <t>Placas12</t>
+  </si>
+  <si>
+    <t>Capacidad12</t>
+  </si>
+  <si>
+    <t>Flejado12</t>
+  </si>
+  <si>
+    <t>Carro13</t>
+  </si>
+  <si>
+    <t>Marca13</t>
+  </si>
+  <si>
+    <t>Placas13</t>
+  </si>
+  <si>
+    <t>Capacidad13</t>
+  </si>
+  <si>
+    <t>Flejado13</t>
+  </si>
+  <si>
+    <t>Carro14</t>
+  </si>
+  <si>
+    <t>Marca14</t>
+  </si>
+  <si>
+    <t>Placas14</t>
+  </si>
+  <si>
+    <t>Capacidad14</t>
+  </si>
+  <si>
+    <t>Flejado14</t>
+  </si>
+  <si>
+    <t>Carro15</t>
+  </si>
+  <si>
+    <t>Marca15</t>
+  </si>
+  <si>
+    <t>Placas15</t>
+  </si>
+  <si>
+    <t>Capacidad15</t>
+  </si>
+  <si>
+    <t>Flejado15</t>
+  </si>
+  <si>
+    <t>Carro16</t>
+  </si>
+  <si>
+    <t>Marca16</t>
+  </si>
+  <si>
+    <t>Placas16</t>
+  </si>
+  <si>
+    <t>Capacidad16</t>
+  </si>
+  <si>
+    <t>Flejado16</t>
+  </si>
+  <si>
+    <t>Carro17</t>
+  </si>
+  <si>
+    <t>Marca17</t>
+  </si>
+  <si>
+    <t>Placas17</t>
+  </si>
+  <si>
+    <t>Capacidad17</t>
+  </si>
+  <si>
+    <t>Flejado17</t>
+  </si>
+  <si>
+    <t>Carro18</t>
+  </si>
+  <si>
+    <t>Marca18</t>
+  </si>
+  <si>
+    <t>Placas18</t>
+  </si>
+  <si>
+    <t>Capacidad18</t>
+  </si>
+  <si>
+    <t>Flejado18</t>
+  </si>
+  <si>
+    <t>Carro19</t>
+  </si>
+  <si>
+    <t>Marca19</t>
+  </si>
+  <si>
+    <t>Placas19</t>
+  </si>
+  <si>
+    <t>Capacidad19</t>
+  </si>
+  <si>
+    <t>Flejado19</t>
+  </si>
+  <si>
+    <t>Carro20</t>
+  </si>
+  <si>
+    <t>Marca20</t>
+  </si>
+  <si>
+    <t>Placas20</t>
+  </si>
+  <si>
+    <t>Capacidad20</t>
+  </si>
+  <si>
+    <t>Flejado20</t>
+  </si>
+  <si>
+    <t>Carro21</t>
+  </si>
+  <si>
+    <t>Marca21</t>
+  </si>
+  <si>
+    <t>Placas21</t>
+  </si>
+  <si>
+    <t>Capacidad21</t>
+  </si>
+  <si>
+    <t>Flejado21</t>
+  </si>
+  <si>
+    <t>Carro22</t>
+  </si>
+  <si>
+    <t>Marca22</t>
+  </si>
+  <si>
+    <t>Placas22</t>
+  </si>
+  <si>
+    <t>Capacidad22</t>
+  </si>
+  <si>
+    <t>Flejado22</t>
+  </si>
+  <si>
+    <t>Carro23</t>
+  </si>
+  <si>
+    <t>Marca23</t>
+  </si>
+  <si>
+    <t>Placas23</t>
+  </si>
+  <si>
+    <t>Capacidad23</t>
+  </si>
+  <si>
+    <t>Flejado23</t>
+  </si>
+  <si>
+    <t>Carro24</t>
+  </si>
+  <si>
+    <t>Marca24</t>
+  </si>
+  <si>
+    <t>Placas24</t>
+  </si>
+  <si>
+    <t>Capacidad24</t>
+  </si>
+  <si>
+    <t>Flejado24</t>
+  </si>
+  <si>
+    <t>Carro25</t>
+  </si>
+  <si>
+    <t>Marca25</t>
+  </si>
+  <si>
+    <t>Placas25</t>
+  </si>
+  <si>
+    <t>Capacidad25</t>
+  </si>
+  <si>
+    <t>Flejado25</t>
+  </si>
+  <si>
+    <t>Carro26</t>
+  </si>
+  <si>
+    <t>Marca26</t>
+  </si>
+  <si>
+    <t>Placas26</t>
+  </si>
+  <si>
+    <t>Capacidad26</t>
+  </si>
+  <si>
+    <t>Flejado26</t>
+  </si>
+  <si>
+    <t>Carro27</t>
+  </si>
+  <si>
+    <t>Marca27</t>
+  </si>
+  <si>
+    <t>Placas27</t>
+  </si>
+  <si>
+    <t>Capacidad27</t>
+  </si>
+  <si>
+    <t>Flejado27</t>
+  </si>
+  <si>
+    <t>Carro28</t>
+  </si>
+  <si>
+    <t>Marca28</t>
+  </si>
+  <si>
+    <t>Placas28</t>
+  </si>
+  <si>
+    <t>Capacidad28</t>
+  </si>
+  <si>
+    <t>Flejado28</t>
+  </si>
+  <si>
+    <t>Carro29</t>
+  </si>
+  <si>
+    <t>Marca29</t>
+  </si>
+  <si>
+    <t>Placas29</t>
+  </si>
+  <si>
+    <t>Capacidad29</t>
+  </si>
+  <si>
+    <t>Flejado29</t>
+  </si>
+  <si>
+    <t>Carro30</t>
+  </si>
+  <si>
+    <t>Marca30</t>
+  </si>
+  <si>
+    <t>Placas30</t>
+  </si>
+  <si>
+    <t>Capacidad30</t>
+  </si>
+  <si>
+    <t>Flejado30</t>
+  </si>
+  <si>
+    <t>Carro31</t>
+  </si>
+  <si>
+    <t>Marca31</t>
+  </si>
+  <si>
+    <t>Placas31</t>
+  </si>
+  <si>
+    <t>Capacidad31</t>
+  </si>
+  <si>
+    <t>Flejado31</t>
+  </si>
+  <si>
+    <t>Carro32</t>
+  </si>
+  <si>
+    <t>Marca32</t>
+  </si>
+  <si>
+    <t>Placas32</t>
+  </si>
+  <si>
+    <t>Capacidad32</t>
+  </si>
+  <si>
+    <t>Flejado32</t>
+  </si>
+  <si>
+    <t>Carro33</t>
+  </si>
+  <si>
+    <t>Marca33</t>
+  </si>
+  <si>
+    <t>Placas33</t>
+  </si>
+  <si>
+    <t>Capacidad33</t>
+  </si>
+  <si>
+    <t>Flejado33</t>
+  </si>
+  <si>
+    <t>Carro34</t>
+  </si>
+  <si>
+    <t>Marca34</t>
+  </si>
+  <si>
+    <t>Placas34</t>
+  </si>
+  <si>
+    <t>Capacidad34</t>
+  </si>
+  <si>
+    <t>Flejado34</t>
+  </si>
+  <si>
+    <t>Carro35</t>
+  </si>
+  <si>
+    <t>Marca35</t>
+  </si>
+  <si>
+    <t>Placas35</t>
+  </si>
+  <si>
+    <t>Capacidad35</t>
+  </si>
+  <si>
+    <t>Flejado35</t>
+  </si>
+  <si>
+    <t>Carro36</t>
+  </si>
+  <si>
+    <t>Marca36</t>
+  </si>
+  <si>
+    <t>Placas36</t>
+  </si>
+  <si>
+    <t>Capacidad36</t>
+  </si>
+  <si>
+    <t>Flejado36</t>
+  </si>
+  <si>
+    <t>Carro37</t>
+  </si>
+  <si>
+    <t>Marca37</t>
+  </si>
+  <si>
+    <t>Placas37</t>
+  </si>
+  <si>
+    <t>Capacidad37</t>
+  </si>
+  <si>
+    <t>Flejado37</t>
+  </si>
+  <si>
+    <t>Carro38</t>
+  </si>
+  <si>
+    <t>Marca38</t>
+  </si>
+  <si>
+    <t>Placas38</t>
+  </si>
+  <si>
+    <t>Capacidad38</t>
+  </si>
+  <si>
+    <t>Flejado38</t>
+  </si>
+  <si>
+    <t>Carro39</t>
+  </si>
+  <si>
+    <t>Marca39</t>
+  </si>
+  <si>
+    <t>Placas39</t>
+  </si>
+  <si>
+    <t>Capacidad39</t>
+  </si>
+  <si>
+    <t>Flejado39</t>
+  </si>
+  <si>
+    <t>Carro40</t>
+  </si>
+  <si>
+    <t>Marca40</t>
+  </si>
+  <si>
+    <t>Placas40</t>
+  </si>
+  <si>
+    <t>Capacidad40</t>
+  </si>
+  <si>
+    <t>Flejado40</t>
+  </si>
+  <si>
+    <t>Carro41</t>
+  </si>
+  <si>
+    <t>Marca41</t>
+  </si>
+  <si>
+    <t>Placas41</t>
+  </si>
+  <si>
+    <t>Capacidad41</t>
+  </si>
+  <si>
+    <t>Flejado41</t>
+  </si>
+  <si>
+    <t>Carro42</t>
+  </si>
+  <si>
+    <t>Marca42</t>
+  </si>
+  <si>
+    <t>Placas42</t>
+  </si>
+  <si>
+    <t>Capacidad42</t>
+  </si>
+  <si>
+    <t>Flejado42</t>
+  </si>
+  <si>
+    <t>Carro43</t>
+  </si>
+  <si>
+    <t>Marca43</t>
+  </si>
+  <si>
+    <t>Placas43</t>
+  </si>
+  <si>
+    <t>Capacidad43</t>
+  </si>
+  <si>
+    <t>Flejado43</t>
+  </si>
+  <si>
+    <t>Carro44</t>
+  </si>
+  <si>
+    <t>Marca44</t>
+  </si>
+  <si>
+    <t>Placas44</t>
+  </si>
+  <si>
+    <t>Capacidad44</t>
+  </si>
+  <si>
+    <t>Flejado44</t>
+  </si>
+  <si>
+    <t>Carro45</t>
+  </si>
+  <si>
+    <t>Marca45</t>
+  </si>
+  <si>
+    <t>Placas45</t>
+  </si>
+  <si>
+    <t>Capacidad45</t>
+  </si>
+  <si>
+    <t>Flejado45</t>
+  </si>
+  <si>
+    <t>Carro46</t>
+  </si>
+  <si>
+    <t>Marca46</t>
+  </si>
+  <si>
+    <t>Placas46</t>
+  </si>
+  <si>
+    <t>Capacidad46</t>
+  </si>
+  <si>
+    <t>Flejado46</t>
+  </si>
+  <si>
+    <t>Carro47</t>
+  </si>
+  <si>
+    <t>Marca47</t>
+  </si>
+  <si>
+    <t>Placas47</t>
+  </si>
+  <si>
+    <t>Capacidad47</t>
+  </si>
+  <si>
+    <t>Flejado47</t>
+  </si>
+  <si>
+    <t>Carro48</t>
+  </si>
+  <si>
+    <t>Marca48</t>
+  </si>
+  <si>
+    <t>Placas48</t>
+  </si>
+  <si>
+    <t>Capacidad48</t>
+  </si>
+  <si>
+    <t>Flejado48</t>
+  </si>
+  <si>
+    <t>Carro49</t>
+  </si>
+  <si>
+    <t>Marca49</t>
+  </si>
+  <si>
+    <t>Placas49</t>
+  </si>
+  <si>
+    <t>Capacidad49</t>
+  </si>
+  <si>
+    <t>Flejado49</t>
+  </si>
+  <si>
+    <t>Carro50</t>
+  </si>
+  <si>
+    <t>Marca50</t>
+  </si>
+  <si>
+    <t>Placas50</t>
+  </si>
+  <si>
+    <t>Capacidad50</t>
+  </si>
+  <si>
+    <t>Flejado50</t>
+  </si>
+  <si>
+    <t>Producto1</t>
+  </si>
+  <si>
+    <t>Producto2</t>
+  </si>
+  <si>
+    <t>Producto3</t>
+  </si>
+  <si>
+    <t>Producto4</t>
+  </si>
+  <si>
+    <t>Producto5</t>
+  </si>
+  <si>
+    <t>Producto6</t>
+  </si>
+  <si>
+    <t>Producto7</t>
+  </si>
+  <si>
+    <t>Producto8</t>
+  </si>
+  <si>
+    <t>Producto9</t>
+  </si>
+  <si>
+    <t>Producto10</t>
+  </si>
+  <si>
+    <t>Producto11</t>
+  </si>
+  <si>
+    <t>Producto12</t>
+  </si>
+  <si>
+    <t>Producto13</t>
+  </si>
+  <si>
+    <t>Producto14</t>
+  </si>
+  <si>
+    <t>Producto15</t>
+  </si>
+  <si>
+    <t>Producto16</t>
+  </si>
+  <si>
+    <t>Producto17</t>
+  </si>
+  <si>
+    <t>Producto18</t>
+  </si>
+  <si>
+    <t>Producto19</t>
+  </si>
+  <si>
+    <t>Producto20</t>
+  </si>
+  <si>
+    <t>Producto21</t>
+  </si>
+  <si>
+    <t>Producto22</t>
+  </si>
+  <si>
+    <t>Producto23</t>
+  </si>
+  <si>
+    <t>Producto24</t>
+  </si>
+  <si>
+    <t>Producto25</t>
+  </si>
+  <si>
+    <t>Producto26</t>
+  </si>
+  <si>
+    <t>Producto27</t>
+  </si>
+  <si>
+    <t>Producto28</t>
+  </si>
+  <si>
+    <t>Producto29</t>
+  </si>
+  <si>
+    <t>Producto30</t>
+  </si>
+  <si>
+    <t>Producto31</t>
+  </si>
+  <si>
+    <t>Producto32</t>
+  </si>
+  <si>
+    <t>Producto33</t>
+  </si>
+  <si>
+    <t>Producto34</t>
+  </si>
+  <si>
+    <t>Producto35</t>
+  </si>
+  <si>
+    <t>Producto36</t>
+  </si>
+  <si>
+    <t>Producto37</t>
+  </si>
+  <si>
+    <t>Producto38</t>
+  </si>
+  <si>
+    <t>Producto39</t>
+  </si>
+  <si>
+    <t>Producto40</t>
+  </si>
+  <si>
+    <t>Producto41</t>
+  </si>
+  <si>
+    <t>Producto42</t>
+  </si>
+  <si>
+    <t>Producto43</t>
+  </si>
+  <si>
+    <t>Producto44</t>
+  </si>
+  <si>
+    <t>Producto45</t>
+  </si>
+  <si>
+    <t>Producto46</t>
+  </si>
+  <si>
+    <t>Producto47</t>
+  </si>
+  <si>
+    <t>Producto48</t>
+  </si>
+  <si>
+    <t>Producto49</t>
+  </si>
+  <si>
+    <t>Producto50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,6 +3128,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1529,7 +3188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1556,6 +3215,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,105 +3826,121 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -2278,11 +3960,11 @@
       <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>24</v>
@@ -2299,13 +3981,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
@@ -2323,10 +4005,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>24</v>
@@ -2343,13 +4025,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
@@ -2387,7 +4069,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2429,111 +4111,108 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -2553,14 +4232,14 @@
       <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="I20" s="5">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>20</v>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>24</v>
@@ -2577,13 +4256,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>13</v>
@@ -2601,13 +4280,13 @@
         <v>3</v>
       </c>
       <c r="I21" s="5">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>24</v>
@@ -2624,13 +4303,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
@@ -2648,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="5">
-        <v>4</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>21</v>
@@ -2671,7 +4350,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
@@ -2695,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>21</v>
@@ -2716,111 +4395,111 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="4">
-        <v>4</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>2</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
@@ -2840,14 +4519,14 @@
       <c r="H28" s="4">
         <v>4</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="5">
-        <v>3</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>20</v>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>24</v>
@@ -2864,13 +4543,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
@@ -2888,13 +4567,13 @@
         <v>4</v>
       </c>
       <c r="I29" s="5">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
       <c r="K29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>24</v>
@@ -2911,13 +4590,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
@@ -2935,10 +4614,10 @@
         <v>4</v>
       </c>
       <c r="I30" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>21</v>
@@ -2958,7 +4637,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>4</v>
@@ -2982,10 +4661,10 @@
         <v>4</v>
       </c>
       <c r="I31" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>21</v>
@@ -3003,111 +4682,111 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="4">
-        <v>5</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>8</v>
@@ -3127,14 +4806,14 @@
       <c r="H36" s="4">
         <v>5</v>
       </c>
-      <c r="I36" s="5">
-        <v>2</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>20</v>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>24</v>
@@ -3151,13 +4830,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>13</v>
@@ -3175,13 +4854,13 @@
         <v>5</v>
       </c>
       <c r="I37" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>24</v>
@@ -3198,13 +4877,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>13</v>
@@ -3245,7 +4924,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
@@ -3269,7 +4948,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
@@ -3287,6 +4966,53 @@
         <v>27</v>
       </c>
       <c r="O39" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7683,4 +9409,2074 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J1" t="s">
+        <v>729</v>
+      </c>
+      <c r="K1" t="s">
+        <v>731</v>
+      </c>
+      <c r="L1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H2" t="s">
+        <v>733</v>
+      </c>
+      <c r="I2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J2" t="s">
+        <v>735</v>
+      </c>
+      <c r="K2" t="s">
+        <v>736</v>
+      </c>
+      <c r="L2" t="s">
+        <v>737</v>
+      </c>
+      <c r="M2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K3" t="s">
+        <v>741</v>
+      </c>
+      <c r="L3" t="s">
+        <v>742</v>
+      </c>
+      <c r="M3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H4" t="s">
+        <v>743</v>
+      </c>
+      <c r="I4" t="s">
+        <v>744</v>
+      </c>
+      <c r="J4" t="s">
+        <v>745</v>
+      </c>
+      <c r="K4" t="s">
+        <v>746</v>
+      </c>
+      <c r="L4" t="s">
+        <v>747</v>
+      </c>
+      <c r="M4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5" t="s">
+        <v>682</v>
+      </c>
+      <c r="H5" t="s">
+        <v>748</v>
+      </c>
+      <c r="I5" t="s">
+        <v>749</v>
+      </c>
+      <c r="J5" t="s">
+        <v>750</v>
+      </c>
+      <c r="K5" t="s">
+        <v>751</v>
+      </c>
+      <c r="L5" t="s">
+        <v>752</v>
+      </c>
+      <c r="M5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" t="s">
+        <v>683</v>
+      </c>
+      <c r="H6" t="s">
+        <v>753</v>
+      </c>
+      <c r="I6" t="s">
+        <v>754</v>
+      </c>
+      <c r="J6" t="s">
+        <v>755</v>
+      </c>
+      <c r="K6" t="s">
+        <v>756</v>
+      </c>
+      <c r="L6" t="s">
+        <v>757</v>
+      </c>
+      <c r="M6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G7" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" t="s">
+        <v>758</v>
+      </c>
+      <c r="I7" t="s">
+        <v>759</v>
+      </c>
+      <c r="J7" t="s">
+        <v>760</v>
+      </c>
+      <c r="K7" t="s">
+        <v>761</v>
+      </c>
+      <c r="L7" t="s">
+        <v>762</v>
+      </c>
+      <c r="M7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F8" t="s">
+        <v>551</v>
+      </c>
+      <c r="G8" t="s">
+        <v>685</v>
+      </c>
+      <c r="H8" t="s">
+        <v>763</v>
+      </c>
+      <c r="I8" t="s">
+        <v>764</v>
+      </c>
+      <c r="J8" t="s">
+        <v>765</v>
+      </c>
+      <c r="K8" t="s">
+        <v>766</v>
+      </c>
+      <c r="L8" t="s">
+        <v>767</v>
+      </c>
+      <c r="M8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G9" t="s">
+        <v>686</v>
+      </c>
+      <c r="H9" t="s">
+        <v>768</v>
+      </c>
+      <c r="I9" t="s">
+        <v>769</v>
+      </c>
+      <c r="J9" t="s">
+        <v>770</v>
+      </c>
+      <c r="K9" t="s">
+        <v>771</v>
+      </c>
+      <c r="L9" t="s">
+        <v>772</v>
+      </c>
+      <c r="M9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" t="s">
+        <v>557</v>
+      </c>
+      <c r="G10" t="s">
+        <v>687</v>
+      </c>
+      <c r="H10" t="s">
+        <v>773</v>
+      </c>
+      <c r="I10" t="s">
+        <v>774</v>
+      </c>
+      <c r="J10" t="s">
+        <v>775</v>
+      </c>
+      <c r="K10" t="s">
+        <v>776</v>
+      </c>
+      <c r="L10" t="s">
+        <v>777</v>
+      </c>
+      <c r="M10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" t="s">
+        <v>688</v>
+      </c>
+      <c r="H11" t="s">
+        <v>778</v>
+      </c>
+      <c r="I11" t="s">
+        <v>779</v>
+      </c>
+      <c r="J11" t="s">
+        <v>780</v>
+      </c>
+      <c r="K11" t="s">
+        <v>781</v>
+      </c>
+      <c r="L11" t="s">
+        <v>782</v>
+      </c>
+      <c r="M11" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" t="s">
+        <v>561</v>
+      </c>
+      <c r="E12" t="s">
+        <v>562</v>
+      </c>
+      <c r="F12" t="s">
+        <v>563</v>
+      </c>
+      <c r="G12" t="s">
+        <v>689</v>
+      </c>
+      <c r="H12" t="s">
+        <v>783</v>
+      </c>
+      <c r="I12" t="s">
+        <v>784</v>
+      </c>
+      <c r="J12" t="s">
+        <v>785</v>
+      </c>
+      <c r="K12" t="s">
+        <v>786</v>
+      </c>
+      <c r="L12" t="s">
+        <v>787</v>
+      </c>
+      <c r="M12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D13" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" t="s">
+        <v>565</v>
+      </c>
+      <c r="F13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" t="s">
+        <v>690</v>
+      </c>
+      <c r="H13" t="s">
+        <v>788</v>
+      </c>
+      <c r="I13" t="s">
+        <v>789</v>
+      </c>
+      <c r="J13" t="s">
+        <v>790</v>
+      </c>
+      <c r="K13" t="s">
+        <v>791</v>
+      </c>
+      <c r="L13" t="s">
+        <v>792</v>
+      </c>
+      <c r="M13" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" t="s">
+        <v>568</v>
+      </c>
+      <c r="F14" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" t="s">
+        <v>691</v>
+      </c>
+      <c r="H14" t="s">
+        <v>793</v>
+      </c>
+      <c r="I14" t="s">
+        <v>794</v>
+      </c>
+      <c r="J14" t="s">
+        <v>795</v>
+      </c>
+      <c r="K14" t="s">
+        <v>796</v>
+      </c>
+      <c r="L14" t="s">
+        <v>797</v>
+      </c>
+      <c r="M14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F15" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" t="s">
+        <v>692</v>
+      </c>
+      <c r="H15" t="s">
+        <v>798</v>
+      </c>
+      <c r="I15" t="s">
+        <v>799</v>
+      </c>
+      <c r="J15" t="s">
+        <v>800</v>
+      </c>
+      <c r="K15" t="s">
+        <v>801</v>
+      </c>
+      <c r="L15" t="s">
+        <v>802</v>
+      </c>
+      <c r="M15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" t="s">
+        <v>573</v>
+      </c>
+      <c r="E16" t="s">
+        <v>574</v>
+      </c>
+      <c r="F16" t="s">
+        <v>575</v>
+      </c>
+      <c r="G16" t="s">
+        <v>693</v>
+      </c>
+      <c r="H16" t="s">
+        <v>803</v>
+      </c>
+      <c r="I16" t="s">
+        <v>804</v>
+      </c>
+      <c r="J16" t="s">
+        <v>805</v>
+      </c>
+      <c r="K16" t="s">
+        <v>806</v>
+      </c>
+      <c r="L16" t="s">
+        <v>807</v>
+      </c>
+      <c r="M16" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" t="s">
+        <v>694</v>
+      </c>
+      <c r="H17" t="s">
+        <v>808</v>
+      </c>
+      <c r="I17" t="s">
+        <v>809</v>
+      </c>
+      <c r="J17" t="s">
+        <v>810</v>
+      </c>
+      <c r="K17" t="s">
+        <v>811</v>
+      </c>
+      <c r="L17" t="s">
+        <v>812</v>
+      </c>
+      <c r="M17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D18" t="s">
+        <v>579</v>
+      </c>
+      <c r="E18" t="s">
+        <v>580</v>
+      </c>
+      <c r="F18" t="s">
+        <v>581</v>
+      </c>
+      <c r="G18" t="s">
+        <v>695</v>
+      </c>
+      <c r="H18" t="s">
+        <v>813</v>
+      </c>
+      <c r="I18" t="s">
+        <v>814</v>
+      </c>
+      <c r="J18" t="s">
+        <v>815</v>
+      </c>
+      <c r="K18" t="s">
+        <v>816</v>
+      </c>
+      <c r="L18" t="s">
+        <v>817</v>
+      </c>
+      <c r="M18" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" t="s">
+        <v>582</v>
+      </c>
+      <c r="E19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F19" t="s">
+        <v>584</v>
+      </c>
+      <c r="G19" t="s">
+        <v>696</v>
+      </c>
+      <c r="H19" t="s">
+        <v>818</v>
+      </c>
+      <c r="I19" t="s">
+        <v>819</v>
+      </c>
+      <c r="J19" t="s">
+        <v>820</v>
+      </c>
+      <c r="K19" t="s">
+        <v>821</v>
+      </c>
+      <c r="L19" t="s">
+        <v>822</v>
+      </c>
+      <c r="M19" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D20" t="s">
+        <v>585</v>
+      </c>
+      <c r="E20" t="s">
+        <v>586</v>
+      </c>
+      <c r="F20" t="s">
+        <v>587</v>
+      </c>
+      <c r="G20" t="s">
+        <v>697</v>
+      </c>
+      <c r="H20" t="s">
+        <v>823</v>
+      </c>
+      <c r="I20" t="s">
+        <v>824</v>
+      </c>
+      <c r="J20" t="s">
+        <v>825</v>
+      </c>
+      <c r="K20" t="s">
+        <v>826</v>
+      </c>
+      <c r="L20" t="s">
+        <v>827</v>
+      </c>
+      <c r="M20" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" t="s">
+        <v>589</v>
+      </c>
+      <c r="F21" t="s">
+        <v>590</v>
+      </c>
+      <c r="G21" t="s">
+        <v>698</v>
+      </c>
+      <c r="H21" t="s">
+        <v>828</v>
+      </c>
+      <c r="I21" t="s">
+        <v>829</v>
+      </c>
+      <c r="J21" t="s">
+        <v>830</v>
+      </c>
+      <c r="K21" t="s">
+        <v>831</v>
+      </c>
+      <c r="L21" t="s">
+        <v>832</v>
+      </c>
+      <c r="M21" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>591</v>
+      </c>
+      <c r="E22" t="s">
+        <v>592</v>
+      </c>
+      <c r="F22" t="s">
+        <v>593</v>
+      </c>
+      <c r="G22" t="s">
+        <v>699</v>
+      </c>
+      <c r="H22" t="s">
+        <v>833</v>
+      </c>
+      <c r="I22" t="s">
+        <v>834</v>
+      </c>
+      <c r="J22" t="s">
+        <v>835</v>
+      </c>
+      <c r="K22" t="s">
+        <v>836</v>
+      </c>
+      <c r="L22" t="s">
+        <v>837</v>
+      </c>
+      <c r="M22" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>594</v>
+      </c>
+      <c r="E23" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" t="s">
+        <v>596</v>
+      </c>
+      <c r="G23" t="s">
+        <v>700</v>
+      </c>
+      <c r="H23" t="s">
+        <v>838</v>
+      </c>
+      <c r="I23" t="s">
+        <v>839</v>
+      </c>
+      <c r="J23" t="s">
+        <v>840</v>
+      </c>
+      <c r="K23" t="s">
+        <v>841</v>
+      </c>
+      <c r="L23" t="s">
+        <v>842</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F24" t="s">
+        <v>599</v>
+      </c>
+      <c r="G24" t="s">
+        <v>701</v>
+      </c>
+      <c r="H24" t="s">
+        <v>843</v>
+      </c>
+      <c r="I24" t="s">
+        <v>844</v>
+      </c>
+      <c r="J24" t="s">
+        <v>845</v>
+      </c>
+      <c r="K24" t="s">
+        <v>846</v>
+      </c>
+      <c r="L24" t="s">
+        <v>847</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E25" t="s">
+        <v>601</v>
+      </c>
+      <c r="F25" t="s">
+        <v>602</v>
+      </c>
+      <c r="G25" t="s">
+        <v>702</v>
+      </c>
+      <c r="H25" t="s">
+        <v>848</v>
+      </c>
+      <c r="I25" t="s">
+        <v>849</v>
+      </c>
+      <c r="J25" t="s">
+        <v>850</v>
+      </c>
+      <c r="K25" t="s">
+        <v>851</v>
+      </c>
+      <c r="L25" t="s">
+        <v>852</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" t="s">
+        <v>603</v>
+      </c>
+      <c r="E26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F26" t="s">
+        <v>605</v>
+      </c>
+      <c r="G26" t="s">
+        <v>703</v>
+      </c>
+      <c r="H26" t="s">
+        <v>853</v>
+      </c>
+      <c r="I26" t="s">
+        <v>854</v>
+      </c>
+      <c r="J26" t="s">
+        <v>855</v>
+      </c>
+      <c r="K26" t="s">
+        <v>856</v>
+      </c>
+      <c r="L26" t="s">
+        <v>857</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" t="s">
+        <v>607</v>
+      </c>
+      <c r="F27" t="s">
+        <v>608</v>
+      </c>
+      <c r="G27" t="s">
+        <v>704</v>
+      </c>
+      <c r="H27" t="s">
+        <v>858</v>
+      </c>
+      <c r="I27" t="s">
+        <v>859</v>
+      </c>
+      <c r="J27" t="s">
+        <v>860</v>
+      </c>
+      <c r="K27" t="s">
+        <v>861</v>
+      </c>
+      <c r="L27" t="s">
+        <v>862</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" t="s">
+        <v>611</v>
+      </c>
+      <c r="G28" t="s">
+        <v>705</v>
+      </c>
+      <c r="H28" t="s">
+        <v>863</v>
+      </c>
+      <c r="I28" t="s">
+        <v>864</v>
+      </c>
+      <c r="J28" t="s">
+        <v>865</v>
+      </c>
+      <c r="K28" t="s">
+        <v>866</v>
+      </c>
+      <c r="L28" t="s">
+        <v>867</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>612</v>
+      </c>
+      <c r="E29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F29" t="s">
+        <v>614</v>
+      </c>
+      <c r="G29" t="s">
+        <v>706</v>
+      </c>
+      <c r="H29" t="s">
+        <v>868</v>
+      </c>
+      <c r="I29" t="s">
+        <v>869</v>
+      </c>
+      <c r="J29" t="s">
+        <v>870</v>
+      </c>
+      <c r="K29" t="s">
+        <v>871</v>
+      </c>
+      <c r="L29" t="s">
+        <v>872</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" t="s">
+        <v>615</v>
+      </c>
+      <c r="E30" t="s">
+        <v>616</v>
+      </c>
+      <c r="F30" t="s">
+        <v>617</v>
+      </c>
+      <c r="G30" t="s">
+        <v>707</v>
+      </c>
+      <c r="H30" t="s">
+        <v>873</v>
+      </c>
+      <c r="I30" t="s">
+        <v>874</v>
+      </c>
+      <c r="J30" t="s">
+        <v>875</v>
+      </c>
+      <c r="K30" t="s">
+        <v>876</v>
+      </c>
+      <c r="L30" t="s">
+        <v>877</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" t="s">
+        <v>618</v>
+      </c>
+      <c r="E31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G31" t="s">
+        <v>708</v>
+      </c>
+      <c r="H31" t="s">
+        <v>878</v>
+      </c>
+      <c r="I31" t="s">
+        <v>879</v>
+      </c>
+      <c r="J31" t="s">
+        <v>880</v>
+      </c>
+      <c r="K31" t="s">
+        <v>881</v>
+      </c>
+      <c r="L31" t="s">
+        <v>882</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D32" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" t="s">
+        <v>622</v>
+      </c>
+      <c r="F32" t="s">
+        <v>623</v>
+      </c>
+      <c r="G32" t="s">
+        <v>709</v>
+      </c>
+      <c r="H32" t="s">
+        <v>883</v>
+      </c>
+      <c r="I32" t="s">
+        <v>884</v>
+      </c>
+      <c r="J32" t="s">
+        <v>885</v>
+      </c>
+      <c r="K32" t="s">
+        <v>886</v>
+      </c>
+      <c r="L32" t="s">
+        <v>887</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D33" t="s">
+        <v>624</v>
+      </c>
+      <c r="E33" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G33" t="s">
+        <v>710</v>
+      </c>
+      <c r="H33" t="s">
+        <v>888</v>
+      </c>
+      <c r="I33" t="s">
+        <v>889</v>
+      </c>
+      <c r="J33" t="s">
+        <v>890</v>
+      </c>
+      <c r="K33" t="s">
+        <v>891</v>
+      </c>
+      <c r="L33" t="s">
+        <v>892</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D34" t="s">
+        <v>627</v>
+      </c>
+      <c r="E34" t="s">
+        <v>628</v>
+      </c>
+      <c r="F34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" t="s">
+        <v>711</v>
+      </c>
+      <c r="H34" t="s">
+        <v>893</v>
+      </c>
+      <c r="I34" t="s">
+        <v>894</v>
+      </c>
+      <c r="J34" t="s">
+        <v>895</v>
+      </c>
+      <c r="K34" t="s">
+        <v>896</v>
+      </c>
+      <c r="L34" t="s">
+        <v>897</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D35" t="s">
+        <v>630</v>
+      </c>
+      <c r="E35" t="s">
+        <v>631</v>
+      </c>
+      <c r="F35" t="s">
+        <v>632</v>
+      </c>
+      <c r="G35" t="s">
+        <v>712</v>
+      </c>
+      <c r="H35" t="s">
+        <v>898</v>
+      </c>
+      <c r="I35" t="s">
+        <v>899</v>
+      </c>
+      <c r="J35" t="s">
+        <v>900</v>
+      </c>
+      <c r="K35" t="s">
+        <v>901</v>
+      </c>
+      <c r="L35" t="s">
+        <v>902</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D36" t="s">
+        <v>633</v>
+      </c>
+      <c r="E36" t="s">
+        <v>634</v>
+      </c>
+      <c r="F36" t="s">
+        <v>635</v>
+      </c>
+      <c r="G36" t="s">
+        <v>713</v>
+      </c>
+      <c r="H36" t="s">
+        <v>903</v>
+      </c>
+      <c r="I36" t="s">
+        <v>904</v>
+      </c>
+      <c r="J36" t="s">
+        <v>905</v>
+      </c>
+      <c r="K36" t="s">
+        <v>906</v>
+      </c>
+      <c r="L36" t="s">
+        <v>907</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D37" t="s">
+        <v>636</v>
+      </c>
+      <c r="E37" t="s">
+        <v>637</v>
+      </c>
+      <c r="F37" t="s">
+        <v>638</v>
+      </c>
+      <c r="G37" t="s">
+        <v>714</v>
+      </c>
+      <c r="H37" t="s">
+        <v>908</v>
+      </c>
+      <c r="I37" t="s">
+        <v>909</v>
+      </c>
+      <c r="J37" t="s">
+        <v>910</v>
+      </c>
+      <c r="K37" t="s">
+        <v>911</v>
+      </c>
+      <c r="L37" t="s">
+        <v>912</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D38" t="s">
+        <v>639</v>
+      </c>
+      <c r="E38" t="s">
+        <v>640</v>
+      </c>
+      <c r="F38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G38" t="s">
+        <v>715</v>
+      </c>
+      <c r="H38" t="s">
+        <v>913</v>
+      </c>
+      <c r="I38" t="s">
+        <v>914</v>
+      </c>
+      <c r="J38" t="s">
+        <v>915</v>
+      </c>
+      <c r="K38" t="s">
+        <v>916</v>
+      </c>
+      <c r="L38" t="s">
+        <v>917</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D39" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" t="s">
+        <v>643</v>
+      </c>
+      <c r="F39" t="s">
+        <v>644</v>
+      </c>
+      <c r="G39" t="s">
+        <v>716</v>
+      </c>
+      <c r="H39" t="s">
+        <v>918</v>
+      </c>
+      <c r="I39" t="s">
+        <v>919</v>
+      </c>
+      <c r="J39" t="s">
+        <v>920</v>
+      </c>
+      <c r="K39" t="s">
+        <v>921</v>
+      </c>
+      <c r="L39" t="s">
+        <v>922</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40" t="s">
+        <v>645</v>
+      </c>
+      <c r="E40" t="s">
+        <v>646</v>
+      </c>
+      <c r="F40" t="s">
+        <v>647</v>
+      </c>
+      <c r="G40" t="s">
+        <v>717</v>
+      </c>
+      <c r="H40" t="s">
+        <v>923</v>
+      </c>
+      <c r="I40" t="s">
+        <v>924</v>
+      </c>
+      <c r="J40" t="s">
+        <v>925</v>
+      </c>
+      <c r="K40" t="s">
+        <v>926</v>
+      </c>
+      <c r="L40" t="s">
+        <v>927</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D41" t="s">
+        <v>648</v>
+      </c>
+      <c r="E41" t="s">
+        <v>649</v>
+      </c>
+      <c r="F41" t="s">
+        <v>650</v>
+      </c>
+      <c r="G41" t="s">
+        <v>718</v>
+      </c>
+      <c r="H41" t="s">
+        <v>928</v>
+      </c>
+      <c r="I41" t="s">
+        <v>929</v>
+      </c>
+      <c r="J41" t="s">
+        <v>930</v>
+      </c>
+      <c r="K41" t="s">
+        <v>931</v>
+      </c>
+      <c r="L41" t="s">
+        <v>932</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D42" t="s">
+        <v>651</v>
+      </c>
+      <c r="E42" t="s">
+        <v>652</v>
+      </c>
+      <c r="F42" t="s">
+        <v>653</v>
+      </c>
+      <c r="G42" t="s">
+        <v>719</v>
+      </c>
+      <c r="H42" t="s">
+        <v>933</v>
+      </c>
+      <c r="I42" t="s">
+        <v>934</v>
+      </c>
+      <c r="J42" t="s">
+        <v>935</v>
+      </c>
+      <c r="K42" t="s">
+        <v>936</v>
+      </c>
+      <c r="L42" t="s">
+        <v>937</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D43" t="s">
+        <v>654</v>
+      </c>
+      <c r="E43" t="s">
+        <v>655</v>
+      </c>
+      <c r="F43" t="s">
+        <v>656</v>
+      </c>
+      <c r="G43" t="s">
+        <v>720</v>
+      </c>
+      <c r="H43" t="s">
+        <v>938</v>
+      </c>
+      <c r="I43" t="s">
+        <v>939</v>
+      </c>
+      <c r="J43" t="s">
+        <v>940</v>
+      </c>
+      <c r="K43" t="s">
+        <v>941</v>
+      </c>
+      <c r="L43" t="s">
+        <v>942</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D44" t="s">
+        <v>657</v>
+      </c>
+      <c r="E44" t="s">
+        <v>658</v>
+      </c>
+      <c r="F44" t="s">
+        <v>659</v>
+      </c>
+      <c r="G44" t="s">
+        <v>721</v>
+      </c>
+      <c r="H44" t="s">
+        <v>943</v>
+      </c>
+      <c r="I44" t="s">
+        <v>944</v>
+      </c>
+      <c r="J44" t="s">
+        <v>945</v>
+      </c>
+      <c r="K44" t="s">
+        <v>946</v>
+      </c>
+      <c r="L44" t="s">
+        <v>947</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E45" t="s">
+        <v>661</v>
+      </c>
+      <c r="F45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G45" t="s">
+        <v>722</v>
+      </c>
+      <c r="H45" t="s">
+        <v>948</v>
+      </c>
+      <c r="I45" t="s">
+        <v>949</v>
+      </c>
+      <c r="J45" t="s">
+        <v>950</v>
+      </c>
+      <c r="K45" t="s">
+        <v>951</v>
+      </c>
+      <c r="L45" t="s">
+        <v>952</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E46" t="s">
+        <v>664</v>
+      </c>
+      <c r="F46" t="s">
+        <v>665</v>
+      </c>
+      <c r="G46" t="s">
+        <v>723</v>
+      </c>
+      <c r="H46" t="s">
+        <v>953</v>
+      </c>
+      <c r="I46" t="s">
+        <v>954</v>
+      </c>
+      <c r="J46" t="s">
+        <v>955</v>
+      </c>
+      <c r="K46" t="s">
+        <v>956</v>
+      </c>
+      <c r="L46" t="s">
+        <v>957</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" t="s">
+        <v>666</v>
+      </c>
+      <c r="E47" t="s">
+        <v>667</v>
+      </c>
+      <c r="F47" t="s">
+        <v>668</v>
+      </c>
+      <c r="G47" t="s">
+        <v>724</v>
+      </c>
+      <c r="H47" t="s">
+        <v>958</v>
+      </c>
+      <c r="I47" t="s">
+        <v>959</v>
+      </c>
+      <c r="J47" t="s">
+        <v>960</v>
+      </c>
+      <c r="K47" t="s">
+        <v>961</v>
+      </c>
+      <c r="L47" t="s">
+        <v>962</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48" t="s">
+        <v>670</v>
+      </c>
+      <c r="F48" t="s">
+        <v>671</v>
+      </c>
+      <c r="G48" t="s">
+        <v>725</v>
+      </c>
+      <c r="H48" t="s">
+        <v>963</v>
+      </c>
+      <c r="I48" t="s">
+        <v>964</v>
+      </c>
+      <c r="J48" t="s">
+        <v>965</v>
+      </c>
+      <c r="K48" t="s">
+        <v>966</v>
+      </c>
+      <c r="L48" t="s">
+        <v>967</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" t="s">
+        <v>672</v>
+      </c>
+      <c r="E49" t="s">
+        <v>673</v>
+      </c>
+      <c r="F49" t="s">
+        <v>674</v>
+      </c>
+      <c r="G49" t="s">
+        <v>726</v>
+      </c>
+      <c r="H49" t="s">
+        <v>968</v>
+      </c>
+      <c r="I49" t="s">
+        <v>969</v>
+      </c>
+      <c r="J49" t="s">
+        <v>970</v>
+      </c>
+      <c r="K49" t="s">
+        <v>971</v>
+      </c>
+      <c r="L49" t="s">
+        <v>972</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D50" t="s">
+        <v>675</v>
+      </c>
+      <c r="E50" t="s">
+        <v>676</v>
+      </c>
+      <c r="F50" t="s">
+        <v>677</v>
+      </c>
+      <c r="G50" t="s">
+        <v>727</v>
+      </c>
+      <c r="H50" t="s">
+        <v>973</v>
+      </c>
+      <c r="I50" t="s">
+        <v>974</v>
+      </c>
+      <c r="J50" t="s">
+        <v>975</v>
+      </c>
+      <c r="K50" t="s">
+        <v>976</v>
+      </c>
+      <c r="L50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1028">
   <si>
     <t>Usuario</t>
   </si>
@@ -3536,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3717,10 +3717,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -3761,10 +3761,10 @@
         <v>17</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -3805,10 +3805,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <v>2</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -3849,10 +3849,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5">
         <v>2</v>
@@ -3871,167 +3871,167 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
@@ -4048,11 +4048,11 @@
       <c r="H14" s="4">
         <v>2</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>21</v>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>24</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -4093,10 +4093,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>24</v>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
@@ -4155,161 +4155,155 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
@@ -4326,14 +4320,14 @@
       <c r="H22" s="4">
         <v>3</v>
       </c>
-      <c r="I22" s="5">
-        <v>3</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>24</v>
@@ -4350,7 +4344,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
@@ -4374,13 +4368,13 @@
         <v>3</v>
       </c>
       <c r="I23" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>24</v>
@@ -4397,13 +4391,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>13</v>
@@ -4421,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
@@ -4442,161 +4436,161 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="4">
-        <v>4</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="4">
-        <v>4</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2</v>
-      </c>
-      <c r="J29" s="5">
-        <v>3</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
@@ -4613,14 +4607,14 @@
       <c r="H30" s="4">
         <v>4</v>
       </c>
-      <c r="I30" s="5">
-        <v>3</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>24</v>
@@ -4637,7 +4631,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>4</v>
@@ -4661,13 +4655,13 @@
         <v>4</v>
       </c>
       <c r="I31" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>24</v>
@@ -4684,13 +4678,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
@@ -4708,10 +4702,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>21</v>
@@ -4729,161 +4723,161 @@
         <v>28</v>
       </c>
     </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="4">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="4">
-        <v>5</v>
-      </c>
-      <c r="I37" s="5">
-        <v>2</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>13</v>
@@ -4900,14 +4894,14 @@
       <c r="H38" s="4">
         <v>5</v>
       </c>
-      <c r="I38" s="5">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>21</v>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>24</v>
@@ -4924,7 +4918,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
@@ -4948,13 +4942,13 @@
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>24</v>
@@ -4971,13 +4965,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>13</v>
@@ -4995,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -5013,6 +5007,100 @@
         <v>27</v>
       </c>
       <c r="O40" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5</v>
+      </c>
+      <c r="I41" s="5">
+        <v>3</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9415,7 +9503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -3538,7 +3538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -9503,8 +9503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="registro" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1028">
   <si>
     <t>Usuario</t>
   </si>
@@ -3536,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3893,7 +3893,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -3937,10 +3937,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
@@ -3959,167 +3959,167 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="7"/>
+      <c r="A11" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
@@ -4136,11 +4136,11 @@
       <c r="H16" s="4">
         <v>2</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>21</v>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>24</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -4181,10 +4181,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>24</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>13</v>
@@ -4243,161 +4243,155 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="4">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5">
-        <v>2</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>13</v>
@@ -4414,14 +4408,14 @@
       <c r="H24" s="4">
         <v>3</v>
       </c>
-      <c r="I24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>24</v>
@@ -4438,7 +4432,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
@@ -4462,13 +4456,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>24</v>
@@ -4485,13 +4479,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
@@ -4509,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>21</v>
@@ -4530,161 +4524,161 @@
         <v>28</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="4">
-        <v>4</v>
-      </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="4">
-        <v>4</v>
-      </c>
-      <c r="I31" s="5">
-        <v>2</v>
-      </c>
-      <c r="J31" s="5">
-        <v>3</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
@@ -4701,14 +4695,14 @@
       <c r="H32" s="4">
         <v>4</v>
       </c>
-      <c r="I32" s="5">
-        <v>3</v>
-      </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>24</v>
@@ -4725,7 +4719,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -4749,13 +4743,13 @@
         <v>4</v>
       </c>
       <c r="I33" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>24</v>
@@ -4772,13 +4766,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>13</v>
@@ -4796,10 +4790,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>21</v>
@@ -4817,161 +4811,161 @@
         <v>28</v>
       </c>
     </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4">
+        <v>4</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="4">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="6">
-        <v>320571043072</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="4">
-        <v>5</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>13</v>
@@ -4988,14 +4982,14 @@
       <c r="H40" s="4">
         <v>5</v>
       </c>
-      <c r="I40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>21</v>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>24</v>
@@ -5012,7 +5006,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>4</v>
@@ -5036,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="I41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>24</v>
@@ -5059,13 +5053,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
@@ -5083,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -5101,6 +5095,100 @@
         <v>27</v>
       </c>
       <c r="O42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="5">
+        <v>3</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="6">
+        <v>320571043072</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="4">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9503,7 +9591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -3539,7 +3539,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,7 +3755,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>320571043072</v>
+        <v>180155787001</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
@@ -3799,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>320571043072</v>
+        <v>180155787001</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>17</v>

--- a/Documentos/EXCEL_PRUE.xlsx
+++ b/Documentos/EXCEL_PRUE.xlsx
@@ -3188,7 +3188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3222,6 +3222,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3755,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>180155787001</v>
+        <v>320571043080</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
@@ -3798,8 +3801,8 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6">
-        <v>180155787001</v>
+      <c r="F7" s="15">
+        <v>320571043080</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>17</v>
@@ -9591,8 +9594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
